--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7A85C4-A91A-4ADE-B00C-2B563E6659BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,25 +13,74 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Domocos Rebeca</t>
+  </si>
   <si>
     <t>Document  Title:</t>
   </si>
   <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t>Filimon Iulia</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Duliba Ruben</t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review date: </t>
   </si>
   <si>
-    <t>Reviewer Name:</t>
-  </si>
-  <si>
-    <t>do not print this form</t>
-  </si>
-  <si>
     <t>Crt. No.</t>
   </si>
   <si>
@@ -43,76 +93,443 @@
     <t>Comments/ improvements</t>
   </si>
   <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>prima propozitie</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cerinta specifica faptul că aplicatia gestioneaza task-urile unei persoane active.Dar nu este specificat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ce inseamna mai exact o persona "activa"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Informatiile sunt preluate dintr-un fisier binar sau text ,dar nu se precizeaza exact daca este nevoie de un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">format </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>anume pentru acel fisier text ,este csv? cum ar trebui sa fie? cum i-ar fi clientului mai la indemana?</t>
+    </r>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">La final se adauga observatia "Task-ul poate fi activ sau nu", asta inseamna ca un task ar trebui sa aiba si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">un atribut care sa specifice daca este activ sau nu. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">La fel si proprietatea </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>daca este sau nu task repetitiv</t>
+    </r>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Se specifica faptul ca datele sa fie preluate dintr-un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>fisier binar</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> sau text.Legat de fisierul binar , aceasta nu este o cerinta adecvata, nu este deloc practica si nu se observa un avantaj al pastrarii datelor in acest format</t>
+    </r>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>"Informatiile sunt preluate dintr-un fisier binar sau text". Nu este specificat formatul fisierelor initiale din care se iau datele, nu se precizeaza de unde se iau aceste fisiere cu date , direct de la clienti?</t>
+  </si>
+  <si>
     <t>Effort to review document (hours):</t>
   </si>
   <si>
-    <t>Author Name:</t>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
-    <t>Popescu Ionel</t>
-  </si>
-  <si>
     <t>Georgescu Anca</t>
   </si>
   <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
-    <t>Requirements Document</t>
-  </si>
-  <si>
-    <t>Architectural Design Document</t>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Ar trebui să existe un package pentru repository care să cuprindă TaskList, ArrayTaskList, LinkedTaskList și TaskIO</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>TaskOperations.java, Notificator.java</t>
+  </si>
+  <si>
+    <t>TasksOperations.java ar trebui să fie în același package</t>
+  </si>
+  <si>
+    <t>A07, A08</t>
+  </si>
+  <si>
+    <t>Nu există descrieri pentru clase</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Diagram</t>
+  </si>
+  <si>
+    <t>Relațiile din diagramă nu corespund cu programul</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
   </si>
   <si>
     <t>Coding Document</t>
   </si>
   <si>
-    <t>Review Form. Coding Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Architectural Design Defects</t>
-  </si>
-  <si>
-    <t>Review Form. Requirements Defects</t>
-  </si>
-  <si>
-    <t>Student 1:</t>
-  </si>
-  <si>
-    <t>Student 2:</t>
-  </si>
-  <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
-    <t>Echipa</t>
-  </si>
-  <si>
-    <t>Grupa</t>
+    <t>Popescu Ioan</t>
+  </si>
+  <si>
+    <t>06.03.2023</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>ArrayTaskList, line 55</t>
+  </si>
+  <si>
+    <t>The line is always evaluated to false because the equals() function is used to evaluate the equality of an object to null value. To improve this the statement should use operator "==" instead.</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>ArrayTaskList, line 141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter name "tasks" was used as a class variable and should not be used as a local one. For eliminating confusion, the local variable should be renamed. </t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>ArrayTaskList, line 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An error is thrown with no message. The exceptions should always contain a message to help debugging. </t>
+  </si>
+  <si>
+    <t>Tool-based Code Analysis</t>
   </si>
   <si>
     <t>Tool used:</t>
   </si>
   <si>
+    <t>Sonar Lint</t>
+  </si>
+  <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
     <t>Before</t>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>File, Line</t>
-  </si>
-  <si>
     <t>After/Argument</t>
   </si>
   <si>
-    <t>Numele si prenumele</t>
-  </si>
-  <si>
-    <t>Tool-based Code Analysis</t>
+    <t>ArrayTaskList, 55</t>
+  </si>
+  <si>
+    <t>Conditional expressions which are always true or false can lead to dead code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(task.equals(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">(task == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>ArrayTaskList, 141</t>
+  </si>
+  <si>
+    <t>Overriding or shadowing a variable declared in an outer scope can strongly impact the readability, and therefore the maintainability, of a piece of code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ArrayTaskList tasks = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ArrayTaskList()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">ArrayTaskList taskList = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>ArrayTaskList()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Controller, 92</t>
+  </si>
+  <si>
+    <t>Programmers should not comment out code as it bloats programs and reduces readability.</t>
+  </si>
+  <si>
+    <t>//getClass().getResource("/fxml/new-edit-task.fxml"));</t>
+  </si>
+  <si>
+    <t>I deleted the comment</t>
+  </si>
+  <si>
+    <t>NewEditController, 83</t>
+  </si>
+  <si>
+    <t>The requirement for a final default clause is defensive programming.</t>
+  </si>
+  <si>
+    <t>switch (clickedButton.getId()){
+            case  "btnNew" : initNewWindow("New Task");
+                break;
+            case "btnEdit" : initEditWindow("Edit Task");
+                break;}</t>
+  </si>
+  <si>
+    <t>switch (clickedButton.getId()){
+            case "btnEdit" : initEditWindow("Edit Task");
+                break;
+            default: initNewWindow("New Task");
+                break;
+        }</t>
+  </si>
+  <si>
+    <t>Notificator, 40</t>
+  </si>
+  <si>
+    <t>Merging collapsible if statements increases the code’s readability.</t>
+  </si>
+  <si>
+    <t>if (!t.isRepeated()){
+                            if (getTimeInMinutes(currentDate) == getTimeInMinutes(t.getTime())){
+                                showNotification(t);
+                            }</t>
+  </si>
+  <si>
+    <t>if (!t.isRepeated() &amp;&amp; getTimeInMinutes(currentDate) == getTimeInMinutes(t.getTime())) {
+                            showNotification(t);
+                        }</t>
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
@@ -121,28 +538,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,8 +603,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +688,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,77 +771,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -382,6 +861,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,7 +912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +945,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,6 +997,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,182 +1189,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="J2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="60.75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="H4" s="18" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="76.5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -856,86 +1498,90 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
   </sheetData>
@@ -953,181 +1599,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="J2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="45.75">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="45.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="30.75">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1135,8 +1899,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1144,8 +1908,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1153,8 +1917,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1162,8 +1926,8 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1171,8 +1935,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1180,8 +1944,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1189,8 +1953,8 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1198,8 +1962,8 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1207,8 +1971,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1216,14 +1980,18 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13"/>
+    <row r="27" spans="2:5">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="16"/>
+      <c r="C28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -1241,182 +2009,300 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="J2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="9" t="s">
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="76.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="60.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="45.75">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1424,8 +2310,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:5">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1433,8 +2319,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+    <row r="19" spans="2:5">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1442,8 +2328,8 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:5">
+      <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1451,8 +2337,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:5">
+      <c r="B21" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1460,8 +2346,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:5">
+      <c r="B22" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1469,8 +2355,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:5">
+      <c r="B23" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1478,8 +2364,8 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:5">
+      <c r="B24" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1487,8 +2373,8 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:5">
+      <c r="B25" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1496,8 +2382,8 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:5">
+      <c r="B26" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1505,8 +2391,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+    <row r="27" spans="2:5">
+      <c r="B27" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1514,8 +2400,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+    <row r="28" spans="2:5">
+      <c r="B28" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1523,8 +2409,8 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+    <row r="29" spans="2:5">
+      <c r="B29" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1532,8 +2418,8 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+    <row r="30" spans="2:5">
+      <c r="B30" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1541,14 +2427,18 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13"/>
+    <row r="31" spans="2:5">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="16"/>
+      <c r="C32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1566,163 +2456,280 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="5"/>
+    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="J2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="76.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="167.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="121.5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1730,9 +2737,14 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1740,9 +2752,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" ht="15">
+      <c r="B17" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1751,8 +2767,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+    <row r="18" spans="2:6">
+      <c r="B18" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1761,8 +2777,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+    <row r="19" spans="2:6">
+      <c r="B19" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1771,8 +2787,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+    <row r="20" spans="2:6">
+      <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1781,8 +2797,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+    <row r="21" spans="2:6">
+      <c r="B21" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1791,8 +2807,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+    <row r="22" spans="2:6">
+      <c r="B22" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1801,8 +2817,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+    <row r="23" spans="2:6">
+      <c r="B23" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1811,8 +2827,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+    <row r="24" spans="2:6">
+      <c r="B24" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1821,8 +2837,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+    <row r="25" spans="2:6">
+      <c r="B25" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1831,8 +2847,8 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+    <row r="26" spans="2:6">
+      <c r="B26" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1841,8 +2857,8 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+    <row r="27" spans="2:6">
+      <c r="B27" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1851,8 +2867,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+    <row r="28" spans="2:6">
+      <c r="B28" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1861,8 +2877,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+    <row r="29" spans="2:6">
+      <c r="B29" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1871,8 +2887,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+    <row r="30" spans="2:6">
+      <c r="B30" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1881,16 +2897,21 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+    <row r="31" spans="2:6">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="16"/>
+      <c r="C32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
